--- a/src/test/resources/Courses.xlsx
+++ b/src/test/resources/Courses.xlsx
@@ -3,12 +3,12 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\2271264\eclipse-workspace\Final_Projects\HackathonProject\IdentifyCourse\src\test\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\2271264\eclipse-workspace\Final_Projects\IdentifyCourse\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DAAA3D8-6A67-41A3-88B3-B9882BAA8906}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9434CA1D-DF4B-4DF7-B1DF-60832AE59AA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{60DA23F0-A5E6-4ECE-B7BA-C20CE9E65AB6}"/>
   </bookViews>
@@ -17,7 +17,7 @@
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="14">
   <si>
     <t>Name</t>
   </si>
@@ -45,12 +45,48 @@
   </si>
   <si>
     <t>Duration</t>
+  </si>
+  <si>
+    <t>Introduction to Web Development with HTML, CSS, JavaScript</t>
+  </si>
+  <si>
+    <t>4.5
+stars</t>
+  </si>
+  <si>
+    <t>Approx. 12 hours to complete</t>
+  </si>
+  <si>
+    <t>Introduction to Front-End Development</t>
+  </si>
+  <si>
+    <t>4.8
+stars</t>
+  </si>
+  <si>
+    <t>Approx. 18 hours to complete</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>12 hours (approximately)</t>
+  </si>
+  <si>
+    <t>4.8</t>
+  </si>
+  <si>
+    <t>18 hours (approximately)</t>
+  </si>
+  <si>
+    <t>4.5</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -405,10 +441,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFDE7359-7E86-4A2A-911A-F08AE9D99323}">
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A2" sqref="A2:E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -424,6 +460,28 @@
         <v>2</v>
       </c>
     </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
